--- a/test-analysis.xlsx
+++ b/test-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej.LAPTOP-PB84M7CF\Documents\MFF\uvod-do-swi\uvod-sw-inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E9AB93-309F-4148-B3E2-6562DB63E5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1D443-94CE-4A85-8E5E-4D84590352D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F23F0EAA-93EF-4F1B-859A-665DC19E58AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -93,6 +93,72 @@
   </si>
   <si>
     <t>Covered test conditions</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Student can sign up for an exam</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Student account available with enrolled courses and necessary permissions</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Log into SIS as student</t>
+  </si>
+  <si>
+    <t>Open list of all exams of his enrolled courses</t>
+  </si>
+  <si>
+    <t>Enroll to the exam</t>
+  </si>
+  <si>
+    <t>Log in successful, home page displayed</t>
+  </si>
+  <si>
+    <t>List of all exams displayed</t>
+  </si>
+  <si>
+    <t>Detail displayed</t>
+  </si>
+  <si>
+    <t>Open detail of one exam with free spaces available</t>
+  </si>
+  <si>
+    <t>Student successfully enrolled</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Student can not sign up for an exam with full capacity</t>
+  </si>
+  <si>
+    <t>Open detail of one exam with no free spaces available</t>
+  </si>
+  <si>
+    <t>Try to enroll to the exam</t>
+  </si>
+  <si>
+    <t>Message displayed, option to sign up in the waiting line</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Sign up to the waiting line</t>
+  </si>
+  <si>
+    <t>Student successfully signed up to the waiting line</t>
   </si>
 </sst>
 </file>
@@ -631,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6942B2-16F1-46ED-A992-15CA96840262}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +717,9 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
@@ -660,7 +728,9 @@
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="22"/>
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
@@ -669,32 +739,45 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -733,8 +816,12 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
     </row>
@@ -742,8 +829,12 @@
       <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
     </row>
@@ -751,8 +842,12 @@
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
     </row>
@@ -761,10 +856,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>17</v>
@@ -773,9 +868,183 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/test-analysis.xlsx
+++ b/test-analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej.LAPTOP-PB84M7CF\Documents\MFF\uvod-do-swi\uvod-sw-inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1D443-94CE-4A85-8E5E-4D84590352D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{2AA1D443-94CE-4A85-8E5E-4D84590352D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41EB4DBB-287B-4B3D-AE17-D5A5AD26C7AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F23F0EAA-93EF-4F1B-859A-665DC19E58AD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,23 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Student can sign up for an exam</t>
   </si>
   <si>
     <t>Priority</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
+    <t>Student account available with enrolled courses and necessary permissions</t>
+  </si>
+  <si>
     <t>Post conditions</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Covered test conditions</t>
+  </si>
+  <si>
     <t>Test steps</t>
   </si>
   <si>
@@ -62,81 +89,54 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Expected result</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Expected result</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
+    <t>Log into SIS as student</t>
+  </si>
+  <si>
+    <t>Log in successful, home page displayed</t>
+  </si>
+  <si>
     <t>2.</t>
   </si>
   <si>
+    <t>Open list of all exams of his enrolled courses</t>
+  </si>
+  <si>
+    <t>List of all exams displayed</t>
+  </si>
+  <si>
     <t>3.</t>
   </si>
   <si>
+    <t>Open detail of one exam with free spaces available</t>
+  </si>
+  <si>
+    <t>Detail displayed</t>
+  </si>
+  <si>
     <t>4.</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Test data</t>
+    <t>Enroll to the exam</t>
+  </si>
+  <si>
+    <t>Student successfully enrolled</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>Covered test conditions</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Student can sign up for an exam</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Student account available with enrolled courses and necessary permissions</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Log into SIS as student</t>
-  </si>
-  <si>
-    <t>Open list of all exams of his enrolled courses</t>
-  </si>
-  <si>
-    <t>Enroll to the exam</t>
-  </si>
-  <si>
-    <t>Log in successful, home page displayed</t>
-  </si>
-  <si>
-    <t>List of all exams displayed</t>
-  </si>
-  <si>
-    <t>Detail displayed</t>
-  </si>
-  <si>
-    <t>Open detail of one exam with free spaces available</t>
-  </si>
-  <si>
-    <t>Student successfully enrolled</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -159,13 +159,62 @@
   </si>
   <si>
     <t>Student successfully signed up to the waiting line</t>
+  </si>
+  <si>
+    <t>Use case: Student wants to view their study results and earned credits</t>
+  </si>
+  <si>
+    <t>UC-003</t>
+  </si>
+  <si>
+    <t>Logged Student can view earned credits</t>
+  </si>
+  <si>
+    <t>Student account available with linked courses and necessary permissions. Student has completed at least one course with a grade and earned credits.</t>
+  </si>
+  <si>
+    <t>Log in to SIS in role Student</t>
+  </si>
+  <si>
+    <t>Log in successful, student homepage displayed</t>
+  </si>
+  <si>
+    <t>Navigate to the "Study Results" section</t>
+  </si>
+  <si>
+    <t>Study results page is displayed, showing a list of completed courses with grades and earned credits</t>
+  </si>
+  <si>
+    <t>Click on a specific course to view more details</t>
+  </si>
+  <si>
+    <t>Course details page is displayed, showing a breakdown of the course components, grades, and earned credits</t>
+  </si>
+  <si>
+    <t>Navigate back to the "Study Results" section</t>
+  </si>
+  <si>
+    <t>Study results page is displayed again, with the list of completed courses and earned credits</t>
+  </si>
+  <si>
+    <t>Verify that the total number of earned credits is displayed and correctly calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of earned credits is displayed and matches the sum of credits from all completed courses
+</t>
+  </si>
+  <si>
+    <t>Logged Student can view exam grading</t>
+  </si>
+  <si>
+    <t>Verify that all grades are correctly displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -339,11 +388,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -383,9 +556,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -697,181 +904,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6942B2-16F1-46ED-A992-15CA96840262}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.81640625" customWidth="1"/>
-    <col min="4" max="4" width="45.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6">
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6">
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6">
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" ht="15" thickBot="1">
       <c r="B15" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1"/>
+    <row r="19" spans="2:6">
       <c r="B19" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
@@ -880,9 +1087,9 @@
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>34</v>
@@ -891,125 +1098,125 @@
       <c r="E20" s="20"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6">
       <c r="B31" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="2:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="29.45" thickBot="1">
       <c r="B32" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>36</v>
@@ -1018,13 +1225,13 @@
         <v>37</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1">
       <c r="B33" s="16" t="s">
         <v>38</v>
       </c>
@@ -1035,16 +1242,396 @@
         <v>40</v>
       </c>
       <c r="E33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15"/>
+    <row r="37" spans="2:6" ht="15">
+      <c r="B37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="2:6" ht="15">
+      <c r="B38" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="2:6" ht="15">
+      <c r="B39" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="2:6" ht="15">
+      <c r="B40" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="2:6" ht="15">
+      <c r="B41" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="2:6" ht="15">
+      <c r="B42" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="2:6" ht="15">
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="2:6" ht="15">
+      <c r="B44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="2:6" ht="15">
+      <c r="B45" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="2:6" ht="15">
+      <c r="B46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="E46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15">
+      <c r="B47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="2:6" ht="30.75">
+      <c r="B48" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="2:6" ht="30.75">
+      <c r="B49" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="2:6" ht="30.75">
+      <c r="B50" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="45.75">
+      <c r="B51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15"/>
+    <row r="53" spans="2:6" ht="15">
+      <c r="B53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="2:6" ht="15">
+      <c r="B54" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="2:6" ht="15">
+      <c r="B55" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="2:6" ht="15">
+      <c r="B56" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="2:6" ht="15">
+      <c r="B57" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+    </row>
+    <row r="58" spans="2:6" ht="15">
+      <c r="B58" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="2:6" ht="15">
+      <c r="B59" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="2:6" ht="15">
+      <c r="B60" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="2:6" ht="15">
+      <c r="B61" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="2:6" ht="15">
+      <c r="B62" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15">
+      <c r="B63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="35"/>
+    </row>
+    <row r="64" spans="2:6" ht="30.75">
+      <c r="B64" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="35"/>
+    </row>
+    <row r="65" spans="2:6" ht="30.75">
+      <c r="B65" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="2:6" ht="30.75">
+      <c r="B66" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="45.75">
+      <c r="B67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1052,12 +1639,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ab6402f7-e863-4f66-a802-cc26cd2de792" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,53 +1882,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ab6402f7-e863-4f66-a802-cc26cd2de792" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637F2411-3D56-4EEF-BBF4-102CFF822213}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AB4F64D-FD4D-446F-9941-ADA693FE5CF2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6F5C3F-5E8E-4AF6-90C2-802B863D9A0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ab6402f7-e863-4f66-a802-cc26cd2de792"/>
-    <ds:schemaRef ds:uri="59f663af-b4f7-454c-9efb-f9ee3989c2e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6F5C3F-5E8E-4AF6-90C2-802B863D9A0F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AB4F64D-FD4D-446F-9941-ADA693FE5CF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="59f663af-b4f7-454c-9efb-f9ee3989c2e2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ab6402f7-e863-4f66-a802-cc26cd2de792"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637F2411-3D56-4EEF-BBF4-102CFF822213}"/>
 </file>